--- a/www/files_manifest.xlsx
+++ b/www/files_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE645B2-4702-AE46-A73B-42A2C6298563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495278E5-0F11-E548-8E71-220591A9795D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="460" windowWidth="24120" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$488</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="508">
   <si>
     <t>datasetName</t>
   </si>
@@ -526,9 +526,6 @@
     <t>Whole Transcriptome Sequencing</t>
   </si>
   <si>
-    <t>Whole Transcriptome Sequencing, Whole Exome Sequencing</t>
-  </si>
-  <si>
     <t>Widefield Fluorescence Microscopy</t>
   </si>
   <si>
@@ -949,9 +946,6 @@
     <t>Leiomyoma</t>
   </si>
   <si>
-    <t>Leukemia, Unspecified</t>
-  </si>
-  <si>
     <t>Liver and Intrahepatic Bile Duct Carcinoma</t>
   </si>
   <si>
@@ -1562,6 +1556,12 @@
   </si>
   <si>
     <t>STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorectal Adenocarcinoma </t>
+  </si>
+  <si>
+    <t>Leukemia</t>
   </si>
 </sst>
 </file>
@@ -1970,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2011,47 +2011,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DA98439B-BB5C-3247-8860-68771FE16F96}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$145</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2 F4:F1048576 F3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A8A92863-7E38-F34D-91E4-B91E1D225E4E}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$146:$B$174</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{AC77CD3A-0497-BE44-AE48-429782C4811E}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$175:$B$215</xm:f>
+            <xm:f>standard_terms!$B$172:$B$212</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3EDBE420-413B-BF43-936F-54CF0DBDDEF7}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$216:$B$227</xm:f>
+            <xm:f>standard_terms!$B$213:$B$224</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{BE31D8E2-3C9D-5741-98C8-AE0259017759}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$228:$B$232</xm:f>
+            <xm:f>standard_terms!$B$225:$B$229</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{99E7EA5E-7F24-3D44-9724-F7A89D8A1D81}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$233:$B$356</xm:f>
+            <xm:f>standard_terms!$B$230:$B$354</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{2C7CD6F0-D0A5-9445-81A7-26B6AACCE36F}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$357:$B$490</xm:f>
+            <xm:f>standard_terms!$B$355:$B$488</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DA98439B-BB5C-3247-8860-68771FE16F96}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$2:$B$144</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A8A92863-7E38-F34D-91E4-B91E1D225E4E}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$145:$B$171</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -2094,7 +2094,7 @@
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2104,27 +2104,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -2208,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15D8B27-E64A-854A-A402-5BD6913012A0}">
-  <dimension ref="A1:C490"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2247,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2258,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2269,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2280,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2302,7 +2302,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2324,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2335,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2346,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2357,7 +2357,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2368,7 +2368,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -2379,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2390,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -2401,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2412,7 +2412,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2423,7 +2423,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2434,7 +2434,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2445,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2456,7 +2456,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2467,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2478,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2489,7 +2489,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2500,7 +2500,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2511,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2522,7 +2522,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2533,7 +2533,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2555,7 +2555,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2566,7 +2566,7 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2577,7 +2577,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2588,7 +2588,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2599,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2610,7 +2610,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2621,7 +2621,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2632,7 +2632,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2643,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2654,7 +2654,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2665,7 +2665,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2676,7 +2676,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -2687,7 +2687,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2698,7 +2698,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2709,7 +2709,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2720,7 +2720,7 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2731,7 +2731,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2742,7 +2742,7 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2753,7 +2753,7 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2764,7 +2764,7 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2775,7 +2775,7 @@
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2786,7 +2786,7 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2797,7 +2797,7 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2808,7 +2808,7 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2819,7 +2819,7 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2830,7 +2830,7 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2841,7 +2841,7 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2852,7 +2852,7 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2863,7 +2863,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2874,7 +2874,7 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2885,7 +2885,7 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2896,7 +2896,7 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2907,7 +2907,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2918,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2929,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2940,7 +2940,7 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2951,7 +2951,7 @@
         <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2962,7 +2962,7 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2973,7 +2973,7 @@
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2984,7 +2984,7 @@
         <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -3017,7 +3017,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -3028,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -3039,7 +3039,7 @@
         <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -3050,7 +3050,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3061,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -3072,7 +3072,7 @@
         <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -3083,7 +3083,7 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -3094,7 +3094,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -3105,7 +3105,7 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -3116,7 +3116,7 @@
         <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -3127,7 +3127,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -3149,7 +3149,7 @@
         <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -3160,7 +3160,7 @@
         <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -3171,7 +3171,7 @@
         <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -3182,7 +3182,7 @@
         <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3193,7 +3193,7 @@
         <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3204,7 +3204,7 @@
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3215,7 +3215,7 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -3226,7 +3226,7 @@
         <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -3237,7 +3237,7 @@
         <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -3248,7 +3248,7 @@
         <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -3259,7 +3259,7 @@
         <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -3270,7 +3270,7 @@
         <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -3281,7 +3281,7 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -3292,7 +3292,7 @@
         <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3303,7 +3303,7 @@
         <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -3314,7 +3314,7 @@
         <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -3325,7 +3325,7 @@
         <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -3336,7 +3336,7 @@
         <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -3347,7 +3347,7 @@
         <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -3358,7 +3358,7 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -3369,7 +3369,7 @@
         <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -3380,7 +3380,7 @@
         <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -3391,7 +3391,7 @@
         <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -3402,7 +3402,7 @@
         <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -3413,7 +3413,7 @@
         <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3424,7 +3424,7 @@
         <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -3435,7 +3435,7 @@
         <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -3446,7 +3446,7 @@
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -3457,7 +3457,7 @@
         <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -3468,7 +3468,7 @@
         <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -3479,7 +3479,7 @@
         <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -3490,7 +3490,7 @@
         <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -3501,7 +3501,7 @@
         <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -3512,7 +3512,7 @@
         <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -3523,7 +3523,7 @@
         <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -3534,7 +3534,7 @@
         <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -3545,7 +3545,7 @@
         <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -3556,7 +3556,7 @@
         <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -3567,7 +3567,7 @@
         <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -3578,7 +3578,7 @@
         <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -3589,7 +3589,7 @@
         <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -3600,7 +3600,7 @@
         <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -3611,7 +3611,7 @@
         <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -3622,7 +3622,7 @@
         <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -3633,7 +3633,7 @@
         <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -3644,7 +3644,7 @@
         <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -3655,7 +3655,7 @@
         <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -3666,7 +3666,7 @@
         <v>152</v>
       </c>
       <c r="C132" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3677,7 +3677,7 @@
         <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -3688,7 +3688,7 @@
         <v>154</v>
       </c>
       <c r="C134" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3699,7 +3699,7 @@
         <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3710,7 +3710,7 @@
         <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3721,7 +3721,7 @@
         <v>157</v>
       </c>
       <c r="C137" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3732,7 +3732,7 @@
         <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3743,7 +3743,7 @@
         <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3754,7 +3754,7 @@
         <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3765,7 +3765,7 @@
         <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3776,7 +3776,7 @@
         <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -3787,7 +3787,7 @@
         <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3798,26 +3798,26 @@
         <v>164</v>
       </c>
       <c r="C144" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B146" t="s">
+        <v>190</v>
+      </c>
       <c r="C146" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -3825,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -3836,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C148" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -3847,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C149" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -3858,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C150" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -3872,7 +3872,7 @@
         <v>185</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -3880,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -3891,10 +3891,10 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -3902,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -3913,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -3924,10 +3924,10 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -3935,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C157" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -3949,7 +3949,7 @@
         <v>169</v>
       </c>
       <c r="C158" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -3960,7 +3960,7 @@
         <v>170</v>
       </c>
       <c r="C159" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -3971,7 +3971,7 @@
         <v>171</v>
       </c>
       <c r="C160" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -3982,7 +3982,7 @@
         <v>172</v>
       </c>
       <c r="C161" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -3990,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C162" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -4004,7 +4004,7 @@
         <v>173</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -4012,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -4023,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -4034,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C166" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -4045,10 +4045,10 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -4056,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C168" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -4067,10 +4067,10 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -4081,7 +4081,7 @@
         <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -4089,51 +4089,51 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C174" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B175" t="s">
+        <v>193</v>
+      </c>
       <c r="C175" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -4141,10 +4141,10 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -4152,10 +4152,10 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C177" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -4163,10 +4163,10 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -4174,10 +4174,10 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C179" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -4185,10 +4185,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -4196,10 +4196,10 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C181" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -4207,10 +4207,10 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C182" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -4218,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C183" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -4229,10 +4229,10 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -4240,10 +4240,10 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C185" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -4251,10 +4251,10 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C186" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -4262,10 +4262,10 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C187" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -4273,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C188" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -4284,10 +4284,10 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -4295,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -4306,10 +4306,10 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -4317,10 +4317,10 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C192" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -4328,10 +4328,10 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C193" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -4339,10 +4339,10 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -4350,10 +4350,10 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -4361,10 +4361,10 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C196" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4372,10 +4372,10 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4383,10 +4383,10 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C198" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4394,10 +4394,10 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C199" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4405,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C200" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4416,10 +4416,10 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C201" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4427,10 +4427,10 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -4438,10 +4438,10 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -4449,10 +4449,10 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C204" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -4460,10 +4460,10 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C205" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -4471,10 +4471,10 @@
         <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C206" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -4482,10 +4482,10 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C207" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -4493,10 +4493,10 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C208" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -4504,10 +4504,10 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C209" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -4515,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C210" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -4526,10 +4526,10 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C211" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -4537,52 +4537,52 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C212" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" t="s">
-        <v>229</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B213" s="3"/>
       <c r="C213" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" t="s">
-        <v>230</v>
+        <v>5</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C214" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" t="s">
-        <v>231</v>
+        <v>5</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C215" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="C216" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -4590,10 +4590,10 @@
         <v>5</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C217" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -4601,10 +4601,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="C218" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -4612,10 +4612,10 @@
         <v>5</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C219" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -4623,10 +4623,10 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -4634,10 +4634,10 @@
         <v>5</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C221" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -4645,10 +4645,10 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C222" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -4656,10 +4656,10 @@
         <v>5</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -4667,51 +4667,51 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C224" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>240</v>
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>241</v>
       </c>
       <c r="C226" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>241</v>
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>242</v>
       </c>
       <c r="C227" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
       <c r="C228" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -4719,52 +4719,52 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="C229" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" t="s">
+        <v>108</v>
+      </c>
+      <c r="C231" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
         <v>243</v>
       </c>
-      <c r="C230" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A231" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>232</v>
-      </c>
-      <c r="C231" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A232" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>155</v>
-      </c>
       <c r="C232" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A233" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="3"/>
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" t="s">
+        <v>244</v>
+      </c>
       <c r="C233" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -4772,10 +4772,10 @@
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="C234" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -4783,10 +4783,10 @@
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C235" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -4794,10 +4794,10 @@
         <v>7</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C236" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -4805,10 +4805,10 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -4816,10 +4816,10 @@
         <v>7</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C238" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -4827,10 +4827,10 @@
         <v>7</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C239" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -4838,10 +4838,10 @@
         <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C240" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -4849,10 +4849,10 @@
         <v>7</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C241" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -4860,10 +4860,10 @@
         <v>7</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C242" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -4871,10 +4871,10 @@
         <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C243" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C244" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -4893,10 +4893,10 @@
         <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C245" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -4904,10 +4904,10 @@
         <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C246" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -4915,10 +4915,10 @@
         <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C247" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -4926,10 +4926,10 @@
         <v>7</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C248" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -4937,10 +4937,10 @@
         <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C249" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -4948,10 +4948,10 @@
         <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C250" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -4959,10 +4959,10 @@
         <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C251" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -4970,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C252" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -4981,10 +4981,10 @@
         <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C253" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -4992,10 +4992,10 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C254" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
@@ -5003,10 +5003,10 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
@@ -5014,10 +5014,10 @@
         <v>7</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C256" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -5025,10 +5025,10 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C257" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
@@ -5036,10 +5036,10 @@
         <v>7</v>
       </c>
       <c r="B258" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C258" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -5047,10 +5047,10 @@
         <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -5058,10 +5058,10 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -5069,10 +5069,10 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C261" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -5080,10 +5080,10 @@
         <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -5091,10 +5091,10 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C263" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
@@ -5102,10 +5102,10 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C264" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -5113,10 +5113,10 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -5124,10 +5124,10 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C266" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
@@ -5135,10 +5135,10 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C267" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
@@ -5146,10 +5146,10 @@
         <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C268" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
@@ -5157,10 +5157,10 @@
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C269" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -5168,10 +5168,10 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C270" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -5179,10 +5179,10 @@
         <v>7</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C271" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -5190,10 +5190,10 @@
         <v>7</v>
       </c>
       <c r="B272" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C272" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -5201,10 +5201,10 @@
         <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>282</v>
+        <v>506</v>
       </c>
       <c r="C273" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -5212,10 +5212,10 @@
         <v>7</v>
       </c>
       <c r="B274" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C274" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -5223,10 +5223,10 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C275" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -5234,10 +5234,10 @@
         <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C276" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -5245,10 +5245,10 @@
         <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C277" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -5256,10 +5256,10 @@
         <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C278" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -5267,10 +5267,10 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C279" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -5278,10 +5278,10 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C280" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -5289,10 +5289,10 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C281" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -5300,10 +5300,10 @@
         <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C282" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -5311,10 +5311,10 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C283" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -5322,10 +5322,10 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C284" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -5333,10 +5333,10 @@
         <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C285" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -5344,10 +5344,10 @@
         <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C286" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -5355,10 +5355,10 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C287" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -5366,10 +5366,10 @@
         <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C288" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -5377,10 +5377,10 @@
         <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C289" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -5388,10 +5388,10 @@
         <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -5399,10 +5399,10 @@
         <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C291" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -5410,10 +5410,10 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>507</v>
       </c>
       <c r="C292" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -5424,7 +5424,7 @@
         <v>302</v>
       </c>
       <c r="C293" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -5435,7 +5435,7 @@
         <v>303</v>
       </c>
       <c r="C294" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -5446,7 +5446,7 @@
         <v>304</v>
       </c>
       <c r="C295" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -5457,7 +5457,7 @@
         <v>305</v>
       </c>
       <c r="C296" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -5468,7 +5468,7 @@
         <v>306</v>
       </c>
       <c r="C297" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -5479,7 +5479,7 @@
         <v>307</v>
       </c>
       <c r="C298" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -5490,7 +5490,7 @@
         <v>308</v>
       </c>
       <c r="C299" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -5501,7 +5501,7 @@
         <v>309</v>
       </c>
       <c r="C300" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -5512,7 +5512,7 @@
         <v>310</v>
       </c>
       <c r="C301" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -5523,7 +5523,7 @@
         <v>311</v>
       </c>
       <c r="C302" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -5534,7 +5534,7 @@
         <v>312</v>
       </c>
       <c r="C303" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -5545,7 +5545,7 @@
         <v>313</v>
       </c>
       <c r="C304" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -5556,7 +5556,7 @@
         <v>314</v>
       </c>
       <c r="C305" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -5567,7 +5567,7 @@
         <v>315</v>
       </c>
       <c r="C306" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -5578,7 +5578,7 @@
         <v>316</v>
       </c>
       <c r="C307" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -5589,7 +5589,7 @@
         <v>317</v>
       </c>
       <c r="C308" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -5600,7 +5600,7 @@
         <v>318</v>
       </c>
       <c r="C309" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -5611,7 +5611,7 @@
         <v>319</v>
       </c>
       <c r="C310" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -5622,7 +5622,7 @@
         <v>320</v>
       </c>
       <c r="C311" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -5633,7 +5633,7 @@
         <v>321</v>
       </c>
       <c r="C312" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="C313" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
@@ -5655,7 +5655,7 @@
         <v>323</v>
       </c>
       <c r="C314" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
@@ -5666,7 +5666,7 @@
         <v>324</v>
       </c>
       <c r="C315" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
@@ -5677,7 +5677,7 @@
         <v>325</v>
       </c>
       <c r="C316" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -5688,7 +5688,7 @@
         <v>326</v>
       </c>
       <c r="C317" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
@@ -5699,7 +5699,7 @@
         <v>327</v>
       </c>
       <c r="C318" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
@@ -5710,7 +5710,7 @@
         <v>328</v>
       </c>
       <c r="C319" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
@@ -5721,7 +5721,7 @@
         <v>329</v>
       </c>
       <c r="C320" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -5732,7 +5732,7 @@
         <v>330</v>
       </c>
       <c r="C321" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -5743,7 +5743,7 @@
         <v>331</v>
       </c>
       <c r="C322" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
@@ -5754,7 +5754,7 @@
         <v>332</v>
       </c>
       <c r="C323" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
@@ -5765,7 +5765,7 @@
         <v>333</v>
       </c>
       <c r="C324" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
@@ -5776,7 +5776,7 @@
         <v>334</v>
       </c>
       <c r="C325" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
@@ -5787,7 +5787,7 @@
         <v>335</v>
       </c>
       <c r="C326" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
@@ -5798,7 +5798,7 @@
         <v>336</v>
       </c>
       <c r="C327" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
@@ -5809,7 +5809,7 @@
         <v>337</v>
       </c>
       <c r="C328" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
@@ -5820,7 +5820,7 @@
         <v>338</v>
       </c>
       <c r="C329" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
@@ -5831,7 +5831,7 @@
         <v>339</v>
       </c>
       <c r="C330" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
@@ -5842,7 +5842,7 @@
         <v>340</v>
       </c>
       <c r="C331" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -5853,7 +5853,7 @@
         <v>341</v>
       </c>
       <c r="C332" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
@@ -5864,7 +5864,7 @@
         <v>342</v>
       </c>
       <c r="C333" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
@@ -5875,7 +5875,7 @@
         <v>343</v>
       </c>
       <c r="C334" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
@@ -5886,7 +5886,7 @@
         <v>344</v>
       </c>
       <c r="C335" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
@@ -5897,7 +5897,7 @@
         <v>345</v>
       </c>
       <c r="C336" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
@@ -5908,7 +5908,7 @@
         <v>346</v>
       </c>
       <c r="C337" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
@@ -5919,7 +5919,7 @@
         <v>347</v>
       </c>
       <c r="C338" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
@@ -5930,7 +5930,7 @@
         <v>348</v>
       </c>
       <c r="C339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
@@ -5941,7 +5941,7 @@
         <v>349</v>
       </c>
       <c r="C340" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
@@ -5952,7 +5952,7 @@
         <v>350</v>
       </c>
       <c r="C341" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -5963,7 +5963,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -5974,7 +5974,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
@@ -5985,7 +5985,7 @@
         <v>353</v>
       </c>
       <c r="C344" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
@@ -5996,7 +5996,7 @@
         <v>354</v>
       </c>
       <c r="C345" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
@@ -6007,7 +6007,7 @@
         <v>355</v>
       </c>
       <c r="C346" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -6018,7 +6018,7 @@
         <v>356</v>
       </c>
       <c r="C347" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
@@ -6029,7 +6029,7 @@
         <v>357</v>
       </c>
       <c r="C348" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
@@ -6040,7 +6040,7 @@
         <v>358</v>
       </c>
       <c r="C349" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
@@ -6051,7 +6051,7 @@
         <v>359</v>
       </c>
       <c r="C350" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
@@ -6062,7 +6062,7 @@
         <v>360</v>
       </c>
       <c r="C351" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
@@ -6073,7 +6073,7 @@
         <v>361</v>
       </c>
       <c r="C352" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
@@ -6084,7 +6084,7 @@
         <v>362</v>
       </c>
       <c r="C353" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
@@ -6095,37 +6095,37 @@
         <v>363</v>
       </c>
       <c r="C354" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>7</v>
-      </c>
-      <c r="B355" t="s">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C356" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>8</v>
       </c>
+      <c r="B357" t="s">
+        <v>365</v>
+      </c>
       <c r="C357" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -6136,7 +6136,7 @@
         <v>366</v>
       </c>
       <c r="C358" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -6147,7 +6147,7 @@
         <v>367</v>
       </c>
       <c r="C359" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -6158,7 +6158,7 @@
         <v>368</v>
       </c>
       <c r="C360" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -6169,7 +6169,7 @@
         <v>369</v>
       </c>
       <c r="C361" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -6180,7 +6180,7 @@
         <v>370</v>
       </c>
       <c r="C362" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -6191,7 +6191,7 @@
         <v>371</v>
       </c>
       <c r="C363" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -6202,7 +6202,7 @@
         <v>372</v>
       </c>
       <c r="C364" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -6213,7 +6213,7 @@
         <v>373</v>
       </c>
       <c r="C365" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -6224,7 +6224,7 @@
         <v>374</v>
       </c>
       <c r="C366" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -6235,7 +6235,7 @@
         <v>375</v>
       </c>
       <c r="C367" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -6246,7 +6246,7 @@
         <v>376</v>
       </c>
       <c r="C368" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -6257,7 +6257,7 @@
         <v>377</v>
       </c>
       <c r="C369" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -6268,7 +6268,7 @@
         <v>378</v>
       </c>
       <c r="C370" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -6279,7 +6279,7 @@
         <v>379</v>
       </c>
       <c r="C371" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -6290,7 +6290,7 @@
         <v>380</v>
       </c>
       <c r="C372" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -6301,7 +6301,7 @@
         <v>381</v>
       </c>
       <c r="C373" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -6312,7 +6312,7 @@
         <v>382</v>
       </c>
       <c r="C374" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -6323,7 +6323,7 @@
         <v>383</v>
       </c>
       <c r="C375" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -6334,7 +6334,7 @@
         <v>384</v>
       </c>
       <c r="C376" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -6345,7 +6345,7 @@
         <v>385</v>
       </c>
       <c r="C377" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -6356,7 +6356,7 @@
         <v>386</v>
       </c>
       <c r="C378" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -6367,7 +6367,7 @@
         <v>387</v>
       </c>
       <c r="C379" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -6378,7 +6378,7 @@
         <v>388</v>
       </c>
       <c r="C380" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -6389,7 +6389,7 @@
         <v>389</v>
       </c>
       <c r="C381" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -6400,7 +6400,7 @@
         <v>390</v>
       </c>
       <c r="C382" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -6411,7 +6411,7 @@
         <v>391</v>
       </c>
       <c r="C383" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -6422,7 +6422,7 @@
         <v>392</v>
       </c>
       <c r="C384" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -6433,7 +6433,7 @@
         <v>393</v>
       </c>
       <c r="C385" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
@@ -6444,7 +6444,7 @@
         <v>394</v>
       </c>
       <c r="C386" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -6455,7 +6455,7 @@
         <v>395</v>
       </c>
       <c r="C387" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
@@ -6466,7 +6466,7 @@
         <v>396</v>
       </c>
       <c r="C388" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
@@ -6477,7 +6477,7 @@
         <v>397</v>
       </c>
       <c r="C389" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -6488,7 +6488,7 @@
         <v>398</v>
       </c>
       <c r="C390" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
@@ -6499,7 +6499,7 @@
         <v>399</v>
       </c>
       <c r="C391" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
@@ -6510,7 +6510,7 @@
         <v>400</v>
       </c>
       <c r="C392" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
@@ -6521,7 +6521,7 @@
         <v>401</v>
       </c>
       <c r="C393" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
@@ -6532,7 +6532,7 @@
         <v>402</v>
       </c>
       <c r="C394" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
@@ -6543,7 +6543,7 @@
         <v>403</v>
       </c>
       <c r="C395" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
@@ -6554,7 +6554,7 @@
         <v>404</v>
       </c>
       <c r="C396" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
@@ -6565,7 +6565,7 @@
         <v>405</v>
       </c>
       <c r="C397" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
@@ -6576,7 +6576,7 @@
         <v>406</v>
       </c>
       <c r="C398" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
@@ -6587,7 +6587,7 @@
         <v>407</v>
       </c>
       <c r="C399" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
@@ -6598,7 +6598,7 @@
         <v>408</v>
       </c>
       <c r="C400" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
@@ -6609,7 +6609,7 @@
         <v>409</v>
       </c>
       <c r="C401" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
@@ -6620,7 +6620,7 @@
         <v>410</v>
       </c>
       <c r="C402" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
@@ -6631,7 +6631,7 @@
         <v>411</v>
       </c>
       <c r="C403" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
@@ -6642,7 +6642,7 @@
         <v>412</v>
       </c>
       <c r="C404" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
@@ -6653,7 +6653,7 @@
         <v>413</v>
       </c>
       <c r="C405" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
@@ -6664,7 +6664,7 @@
         <v>414</v>
       </c>
       <c r="C406" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
@@ -6675,7 +6675,7 @@
         <v>415</v>
       </c>
       <c r="C407" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
@@ -6686,7 +6686,7 @@
         <v>416</v>
       </c>
       <c r="C408" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
@@ -6697,7 +6697,7 @@
         <v>417</v>
       </c>
       <c r="C409" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
@@ -6708,7 +6708,7 @@
         <v>418</v>
       </c>
       <c r="C410" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
@@ -6719,7 +6719,7 @@
         <v>419</v>
       </c>
       <c r="C411" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
@@ -6730,7 +6730,7 @@
         <v>420</v>
       </c>
       <c r="C412" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
@@ -6741,7 +6741,7 @@
         <v>421</v>
       </c>
       <c r="C413" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
@@ -6752,7 +6752,7 @@
         <v>422</v>
       </c>
       <c r="C414" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
@@ -6763,7 +6763,7 @@
         <v>423</v>
       </c>
       <c r="C415" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
@@ -6774,7 +6774,7 @@
         <v>424</v>
       </c>
       <c r="C416" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
@@ -6785,7 +6785,7 @@
         <v>425</v>
       </c>
       <c r="C417" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
@@ -6796,7 +6796,7 @@
         <v>426</v>
       </c>
       <c r="C418" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
@@ -6807,7 +6807,7 @@
         <v>427</v>
       </c>
       <c r="C419" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
@@ -6818,7 +6818,7 @@
         <v>428</v>
       </c>
       <c r="C420" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>429</v>
       </c>
       <c r="C421" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
@@ -6840,7 +6840,7 @@
         <v>430</v>
       </c>
       <c r="C422" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
@@ -6851,7 +6851,7 @@
         <v>431</v>
       </c>
       <c r="C423" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
@@ -6862,7 +6862,7 @@
         <v>432</v>
       </c>
       <c r="C424" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
@@ -6873,7 +6873,7 @@
         <v>433</v>
       </c>
       <c r="C425" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
@@ -6884,7 +6884,7 @@
         <v>434</v>
       </c>
       <c r="C426" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
@@ -6895,7 +6895,7 @@
         <v>435</v>
       </c>
       <c r="C427" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
@@ -6906,7 +6906,7 @@
         <v>436</v>
       </c>
       <c r="C428" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
@@ -6917,7 +6917,7 @@
         <v>437</v>
       </c>
       <c r="C429" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
@@ -6928,7 +6928,7 @@
         <v>438</v>
       </c>
       <c r="C430" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
@@ -6939,7 +6939,7 @@
         <v>439</v>
       </c>
       <c r="C431" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
@@ -6950,7 +6950,7 @@
         <v>440</v>
       </c>
       <c r="C432" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
@@ -6961,7 +6961,7 @@
         <v>441</v>
       </c>
       <c r="C433" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
@@ -6972,7 +6972,7 @@
         <v>442</v>
       </c>
       <c r="C434" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
@@ -6983,7 +6983,7 @@
         <v>443</v>
       </c>
       <c r="C435" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
@@ -6994,7 +6994,7 @@
         <v>444</v>
       </c>
       <c r="C436" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
@@ -7005,7 +7005,7 @@
         <v>445</v>
       </c>
       <c r="C437" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
@@ -7016,7 +7016,7 @@
         <v>446</v>
       </c>
       <c r="C438" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
@@ -7027,7 +7027,7 @@
         <v>447</v>
       </c>
       <c r="C439" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
@@ -7038,7 +7038,7 @@
         <v>448</v>
       </c>
       <c r="C440" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
@@ -7049,7 +7049,7 @@
         <v>449</v>
       </c>
       <c r="C441" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
@@ -7060,7 +7060,7 @@
         <v>450</v>
       </c>
       <c r="C442" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
@@ -7071,7 +7071,7 @@
         <v>451</v>
       </c>
       <c r="C443" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
@@ -7082,7 +7082,7 @@
         <v>452</v>
       </c>
       <c r="C444" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
@@ -7093,7 +7093,7 @@
         <v>453</v>
       </c>
       <c r="C445" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
@@ -7104,7 +7104,7 @@
         <v>454</v>
       </c>
       <c r="C446" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
@@ -7115,7 +7115,7 @@
         <v>455</v>
       </c>
       <c r="C447" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
@@ -7126,7 +7126,7 @@
         <v>456</v>
       </c>
       <c r="C448" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
@@ -7137,7 +7137,7 @@
         <v>457</v>
       </c>
       <c r="C449" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
@@ -7148,7 +7148,7 @@
         <v>458</v>
       </c>
       <c r="C450" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
@@ -7159,7 +7159,7 @@
         <v>459</v>
       </c>
       <c r="C451" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
@@ -7170,7 +7170,7 @@
         <v>460</v>
       </c>
       <c r="C452" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
@@ -7181,7 +7181,7 @@
         <v>461</v>
       </c>
       <c r="C453" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
@@ -7192,7 +7192,7 @@
         <v>462</v>
       </c>
       <c r="C454" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
@@ -7203,7 +7203,7 @@
         <v>463</v>
       </c>
       <c r="C455" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
@@ -7214,7 +7214,7 @@
         <v>464</v>
       </c>
       <c r="C456" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
@@ -7225,7 +7225,7 @@
         <v>465</v>
       </c>
       <c r="C457" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
@@ -7236,7 +7236,7 @@
         <v>466</v>
       </c>
       <c r="C458" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
@@ -7247,7 +7247,7 @@
         <v>467</v>
       </c>
       <c r="C459" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
@@ -7258,7 +7258,7 @@
         <v>468</v>
       </c>
       <c r="C460" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
@@ -7269,7 +7269,7 @@
         <v>469</v>
       </c>
       <c r="C461" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
@@ -7280,7 +7280,7 @@
         <v>470</v>
       </c>
       <c r="C462" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
@@ -7291,7 +7291,7 @@
         <v>471</v>
       </c>
       <c r="C463" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
@@ -7302,7 +7302,7 @@
         <v>472</v>
       </c>
       <c r="C464" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
@@ -7313,7 +7313,7 @@
         <v>473</v>
       </c>
       <c r="C465" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
@@ -7324,7 +7324,7 @@
         <v>474</v>
       </c>
       <c r="C466" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
@@ -7335,7 +7335,7 @@
         <v>475</v>
       </c>
       <c r="C467" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
@@ -7346,7 +7346,7 @@
         <v>476</v>
       </c>
       <c r="C468" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
@@ -7357,7 +7357,7 @@
         <v>477</v>
       </c>
       <c r="C469" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
@@ -7368,7 +7368,7 @@
         <v>478</v>
       </c>
       <c r="C470" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
@@ -7379,7 +7379,7 @@
         <v>479</v>
       </c>
       <c r="C471" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
@@ -7390,7 +7390,7 @@
         <v>480</v>
       </c>
       <c r="C472" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
@@ -7401,7 +7401,7 @@
         <v>481</v>
       </c>
       <c r="C473" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
@@ -7412,7 +7412,7 @@
         <v>482</v>
       </c>
       <c r="C474" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
@@ -7423,7 +7423,7 @@
         <v>483</v>
       </c>
       <c r="C475" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
@@ -7434,7 +7434,7 @@
         <v>484</v>
       </c>
       <c r="C476" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
@@ -7445,7 +7445,7 @@
         <v>485</v>
       </c>
       <c r="C477" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
@@ -7456,7 +7456,7 @@
         <v>486</v>
       </c>
       <c r="C478" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
@@ -7467,7 +7467,7 @@
         <v>487</v>
       </c>
       <c r="C479" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
@@ -7478,7 +7478,7 @@
         <v>488</v>
       </c>
       <c r="C480" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
@@ -7486,10 +7486,10 @@
         <v>8</v>
       </c>
       <c r="B481" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="C481" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
@@ -7497,10 +7497,10 @@
         <v>8</v>
       </c>
       <c r="B482" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C482" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
@@ -7508,10 +7508,10 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>155</v>
+        <v>490</v>
       </c>
       <c r="C483" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
@@ -7522,7 +7522,7 @@
         <v>491</v>
       </c>
       <c r="C484" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.15">
@@ -7533,7 +7533,7 @@
         <v>492</v>
       </c>
       <c r="C485" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
@@ -7544,7 +7544,7 @@
         <v>493</v>
       </c>
       <c r="C486" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
@@ -7555,7 +7555,7 @@
         <v>494</v>
       </c>
       <c r="C487" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
@@ -7566,36 +7566,14 @@
         <v>495</v>
       </c>
       <c r="C488" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A489" t="s">
-        <v>8</v>
-      </c>
-      <c r="B489" t="s">
-        <v>496</v>
-      </c>
-      <c r="C489" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A490" t="s">
-        <v>8</v>
-      </c>
-      <c r="B490" t="s">
-        <v>497</v>
-      </c>
-      <c r="C490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:B490" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A147:B174">
-    <sortCondition ref="B147:B174"/>
+  <autoFilter ref="A1:B488" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:B171">
+    <sortCondition ref="B146:B171"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/files_manifest.xlsx
+++ b/www/files_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495278E5-0F11-E548-8E71-220591A9795D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC3B9B-B642-DC42-9037-29C61782975C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="460" windowWidth="24120" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$488</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$490</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="510">
   <si>
     <t>datasetName</t>
   </si>
@@ -1562,6 +1562,12 @@
   </si>
   <si>
     <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Hepatocellular Carcinoma</t>
   </si>
 </sst>
 </file>
@@ -2031,13 +2037,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{99E7EA5E-7F24-3D44-9724-F7A89D8A1D81}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$230:$B$354</xm:f>
+            <xm:f>standard_terms!$B$230:$B$356</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{2C7CD6F0-D0A5-9445-81A7-26B6AACCE36F}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$355:$B$488</xm:f>
+            <xm:f>standard_terms!$B$357:$B$490</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
@@ -2208,9 +2214,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15D8B27-E64A-854A-A402-5BD6913012A0}">
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A474" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4937,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>260</v>
+        <v>508</v>
       </c>
       <c r="C249" t="s">
         <v>505</v>
@@ -4948,7 +4954,7 @@
         <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C250" t="s">
         <v>505</v>
@@ -4959,7 +4965,7 @@
         <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C251" t="s">
         <v>505</v>
@@ -4970,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C252" t="s">
         <v>505</v>
@@ -4981,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C253" t="s">
         <v>505</v>
@@ -4992,7 +4998,7 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C254" t="s">
         <v>505</v>
@@ -5003,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
         <v>505</v>
@@ -5014,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="B256" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C256" t="s">
         <v>505</v>
@@ -5025,7 +5031,7 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C257" t="s">
         <v>505</v>
@@ -5036,7 +5042,7 @@
         <v>7</v>
       </c>
       <c r="B258" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C258" t="s">
         <v>505</v>
@@ -5047,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C259" t="s">
         <v>505</v>
@@ -5058,7 +5064,7 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
         <v>505</v>
@@ -5069,7 +5075,7 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C261" t="s">
         <v>505</v>
@@ -5080,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C262" t="s">
         <v>505</v>
@@ -5091,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s">
         <v>505</v>
@@ -5102,7 +5108,7 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C264" t="s">
         <v>505</v>
@@ -5113,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C265" t="s">
         <v>505</v>
@@ -5124,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C266" t="s">
         <v>505</v>
@@ -5135,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C267" t="s">
         <v>505</v>
@@ -5146,7 +5152,7 @@
         <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C268" t="s">
         <v>505</v>
@@ -5157,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C269" t="s">
         <v>505</v>
@@ -5168,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C270" t="s">
         <v>505</v>
@@ -5179,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="B271" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C271" t="s">
         <v>505</v>
@@ -5190,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="B272" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C272" t="s">
         <v>505</v>
@@ -5201,7 +5207,7 @@
         <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="C273" t="s">
         <v>505</v>
@@ -5212,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="B274" t="s">
-        <v>284</v>
+        <v>506</v>
       </c>
       <c r="C274" t="s">
         <v>505</v>
@@ -5223,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s">
         <v>505</v>
@@ -5234,7 +5240,7 @@
         <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C276" t="s">
         <v>505</v>
@@ -5245,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C277" t="s">
         <v>505</v>
@@ -5256,7 +5262,7 @@
         <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C278" t="s">
         <v>505</v>
@@ -5267,7 +5273,7 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C279" t="s">
         <v>505</v>
@@ -5278,7 +5284,7 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C280" t="s">
         <v>505</v>
@@ -5289,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C281" t="s">
         <v>505</v>
@@ -5300,7 +5306,7 @@
         <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
         <v>505</v>
@@ -5311,7 +5317,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
         <v>505</v>
@@ -5322,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C284" t="s">
         <v>505</v>
@@ -5333,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C285" t="s">
         <v>505</v>
@@ -5344,7 +5350,7 @@
         <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C286" t="s">
         <v>505</v>
@@ -5355,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>297</v>
+        <v>509</v>
       </c>
       <c r="C287" t="s">
         <v>505</v>
@@ -5366,7 +5372,7 @@
         <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C288" t="s">
         <v>505</v>
@@ -5377,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C289" t="s">
         <v>505</v>
@@ -5388,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C290" t="s">
         <v>505</v>
@@ -5399,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C291" t="s">
         <v>505</v>
@@ -5410,7 +5416,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="C292" t="s">
         <v>505</v>
@@ -5421,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C293" t="s">
         <v>505</v>
@@ -5432,7 +5438,7 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>303</v>
+        <v>507</v>
       </c>
       <c r="C294" t="s">
         <v>505</v>
@@ -5443,7 +5449,7 @@
         <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C295" t="s">
         <v>505</v>
@@ -5454,7 +5460,7 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C296" t="s">
         <v>505</v>
@@ -5465,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C297" t="s">
         <v>505</v>
@@ -5476,7 +5482,7 @@
         <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C298" t="s">
         <v>505</v>
@@ -5487,7 +5493,7 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C299" t="s">
         <v>505</v>
@@ -5498,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C300" t="s">
         <v>505</v>
@@ -5509,7 +5515,7 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C301" t="s">
         <v>505</v>
@@ -5520,7 +5526,7 @@
         <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C302" t="s">
         <v>505</v>
@@ -5531,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C303" t="s">
         <v>505</v>
@@ -5542,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C304" t="s">
         <v>505</v>
@@ -5553,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C305" t="s">
         <v>505</v>
@@ -5564,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C306" t="s">
         <v>505</v>
@@ -5575,7 +5581,7 @@
         <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C307" t="s">
         <v>505</v>
@@ -5586,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C308" t="s">
         <v>505</v>
@@ -5597,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C309" t="s">
         <v>505</v>
@@ -5608,7 +5614,7 @@
         <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C310" t="s">
         <v>505</v>
@@ -5619,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C311" t="s">
         <v>505</v>
@@ -5630,7 +5636,7 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C312" t="s">
         <v>505</v>
@@ -5641,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C313" t="s">
         <v>505</v>
@@ -5652,7 +5658,7 @@
         <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C314" t="s">
         <v>505</v>
@@ -5663,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C315" t="s">
         <v>505</v>
@@ -5674,7 +5680,7 @@
         <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C316" t="s">
         <v>505</v>
@@ -5685,7 +5691,7 @@
         <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C317" t="s">
         <v>505</v>
@@ -5696,7 +5702,7 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C318" t="s">
         <v>505</v>
@@ -5707,7 +5713,7 @@
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C319" t="s">
         <v>505</v>
@@ -5718,7 +5724,7 @@
         <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C320" t="s">
         <v>505</v>
@@ -5729,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C321" t="s">
         <v>505</v>
@@ -5740,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C322" t="s">
         <v>505</v>
@@ -5751,7 +5757,7 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C323" t="s">
         <v>505</v>
@@ -5762,7 +5768,7 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C324" t="s">
         <v>505</v>
@@ -5773,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C325" t="s">
         <v>505</v>
@@ -5784,7 +5790,7 @@
         <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C326" t="s">
         <v>505</v>
@@ -5795,7 +5801,7 @@
         <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C327" t="s">
         <v>505</v>
@@ -5806,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C328" t="s">
         <v>505</v>
@@ -5817,7 +5823,7 @@
         <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C329" t="s">
         <v>505</v>
@@ -5828,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C330" t="s">
         <v>505</v>
@@ -5839,7 +5845,7 @@
         <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C331" t="s">
         <v>505</v>
@@ -5850,7 +5856,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C332" t="s">
         <v>505</v>
@@ -5861,7 +5867,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C333" t="s">
         <v>505</v>
@@ -5872,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C334" t="s">
         <v>505</v>
@@ -5883,7 +5889,7 @@
         <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C335" t="s">
         <v>505</v>
@@ -5894,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C336" t="s">
         <v>505</v>
@@ -5905,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C337" t="s">
         <v>505</v>
@@ -5916,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C338" t="s">
         <v>505</v>
@@ -5927,7 +5933,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C339" t="s">
         <v>505</v>
@@ -5938,7 +5944,7 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C340" t="s">
         <v>505</v>
@@ -5949,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C341" t="s">
         <v>505</v>
@@ -5960,7 +5966,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C342" t="s">
         <v>505</v>
@@ -5971,7 +5977,7 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C343" t="s">
         <v>505</v>
@@ -5982,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C344" t="s">
         <v>505</v>
@@ -5993,7 +5999,7 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C345" t="s">
         <v>505</v>
@@ -6004,7 +6010,7 @@
         <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C346" t="s">
         <v>505</v>
@@ -6015,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C347" t="s">
         <v>505</v>
@@ -6026,7 +6032,7 @@
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C348" t="s">
         <v>505</v>
@@ -6037,7 +6043,7 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C349" t="s">
         <v>505</v>
@@ -6048,7 +6054,7 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C350" t="s">
         <v>505</v>
@@ -6059,7 +6065,7 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C351" t="s">
         <v>505</v>
@@ -6070,7 +6076,7 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C352" t="s">
         <v>505</v>
@@ -6081,7 +6087,7 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C353" t="s">
         <v>505</v>
@@ -6092,7 +6098,7 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C354" t="s">
         <v>505</v>
@@ -6100,7 +6106,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>362</v>
       </c>
       <c r="C355" t="s">
         <v>505</v>
@@ -6108,10 +6117,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C356" t="s">
         <v>505</v>
@@ -6121,9 +6130,6 @@
       <c r="A357" t="s">
         <v>8</v>
       </c>
-      <c r="B357" t="s">
-        <v>365</v>
-      </c>
       <c r="C357" t="s">
         <v>505</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C358" t="s">
         <v>505</v>
@@ -6144,7 +6150,7 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C359" t="s">
         <v>505</v>
@@ -6155,7 +6161,7 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C360" t="s">
         <v>505</v>
@@ -6166,7 +6172,7 @@
         <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C361" t="s">
         <v>505</v>
@@ -6177,7 +6183,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C362" t="s">
         <v>505</v>
@@ -6188,7 +6194,7 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C363" t="s">
         <v>505</v>
@@ -6199,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C364" t="s">
         <v>505</v>
@@ -6210,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C365" t="s">
         <v>505</v>
@@ -6221,7 +6227,7 @@
         <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C366" t="s">
         <v>505</v>
@@ -6232,7 +6238,7 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C367" t="s">
         <v>505</v>
@@ -6243,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C368" t="s">
         <v>505</v>
@@ -6254,7 +6260,7 @@
         <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C369" t="s">
         <v>505</v>
@@ -6265,7 +6271,7 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C370" t="s">
         <v>505</v>
@@ -6276,7 +6282,7 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C371" t="s">
         <v>505</v>
@@ -6287,7 +6293,7 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C372" t="s">
         <v>505</v>
@@ -6298,7 +6304,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C373" t="s">
         <v>505</v>
@@ -6309,7 +6315,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C374" t="s">
         <v>505</v>
@@ -6320,7 +6326,7 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C375" t="s">
         <v>505</v>
@@ -6331,7 +6337,7 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C376" t="s">
         <v>505</v>
@@ -6342,7 +6348,7 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C377" t="s">
         <v>505</v>
@@ -6353,7 +6359,7 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C378" t="s">
         <v>505</v>
@@ -6364,7 +6370,7 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C379" t="s">
         <v>505</v>
@@ -6375,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C380" t="s">
         <v>505</v>
@@ -6386,7 +6392,7 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C381" t="s">
         <v>505</v>
@@ -6397,7 +6403,7 @@
         <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C382" t="s">
         <v>505</v>
@@ -6408,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C383" t="s">
         <v>505</v>
@@ -6419,7 +6425,7 @@
         <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C384" t="s">
         <v>505</v>
@@ -6430,7 +6436,7 @@
         <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C385" t="s">
         <v>505</v>
@@ -6441,7 +6447,7 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C386" t="s">
         <v>505</v>
@@ -6452,7 +6458,7 @@
         <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C387" t="s">
         <v>505</v>
@@ -6463,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C388" t="s">
         <v>505</v>
@@ -6474,7 +6480,7 @@
         <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C389" t="s">
         <v>505</v>
@@ -6485,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C390" t="s">
         <v>505</v>
@@ -6496,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C391" t="s">
         <v>505</v>
@@ -6507,7 +6513,7 @@
         <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C392" t="s">
         <v>505</v>
@@ -6518,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C393" t="s">
         <v>505</v>
@@ -6529,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C394" t="s">
         <v>505</v>
@@ -6540,7 +6546,7 @@
         <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C395" t="s">
         <v>505</v>
@@ -6551,7 +6557,7 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C396" t="s">
         <v>505</v>
@@ -6562,7 +6568,7 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C397" t="s">
         <v>505</v>
@@ -6573,7 +6579,7 @@
         <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C398" t="s">
         <v>505</v>
@@ -6584,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C399" t="s">
         <v>505</v>
@@ -6595,7 +6601,7 @@
         <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C400" t="s">
         <v>505</v>
@@ -6606,7 +6612,7 @@
         <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C401" t="s">
         <v>505</v>
@@ -6617,7 +6623,7 @@
         <v>8</v>
       </c>
       <c r="B402" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C402" t="s">
         <v>505</v>
@@ -6628,7 +6634,7 @@
         <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C403" t="s">
         <v>505</v>
@@ -6639,7 +6645,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C404" t="s">
         <v>505</v>
@@ -6650,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C405" t="s">
         <v>505</v>
@@ -6661,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C406" t="s">
         <v>505</v>
@@ -6672,7 +6678,7 @@
         <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C407" t="s">
         <v>505</v>
@@ -6683,7 +6689,7 @@
         <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C408" t="s">
         <v>505</v>
@@ -6694,7 +6700,7 @@
         <v>8</v>
       </c>
       <c r="B409" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C409" t="s">
         <v>505</v>
@@ -6705,7 +6711,7 @@
         <v>8</v>
       </c>
       <c r="B410" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C410" t="s">
         <v>505</v>
@@ -6716,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C411" t="s">
         <v>505</v>
@@ -6727,7 +6733,7 @@
         <v>8</v>
       </c>
       <c r="B412" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C412" t="s">
         <v>505</v>
@@ -6738,7 +6744,7 @@
         <v>8</v>
       </c>
       <c r="B413" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C413" t="s">
         <v>505</v>
@@ -6749,7 +6755,7 @@
         <v>8</v>
       </c>
       <c r="B414" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C414" t="s">
         <v>505</v>
@@ -6760,7 +6766,7 @@
         <v>8</v>
       </c>
       <c r="B415" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C415" t="s">
         <v>505</v>
@@ -6771,7 +6777,7 @@
         <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C416" t="s">
         <v>505</v>
@@ -6782,7 +6788,7 @@
         <v>8</v>
       </c>
       <c r="B417" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C417" t="s">
         <v>505</v>
@@ -6793,7 +6799,7 @@
         <v>8</v>
       </c>
       <c r="B418" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C418" t="s">
         <v>505</v>
@@ -6804,7 +6810,7 @@
         <v>8</v>
       </c>
       <c r="B419" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C419" t="s">
         <v>505</v>
@@ -6815,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="B420" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C420" t="s">
         <v>505</v>
@@ -6826,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="B421" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C421" t="s">
         <v>505</v>
@@ -6837,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B422" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C422" t="s">
         <v>505</v>
@@ -6848,7 +6854,7 @@
         <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C423" t="s">
         <v>505</v>
@@ -6859,7 +6865,7 @@
         <v>8</v>
       </c>
       <c r="B424" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C424" t="s">
         <v>505</v>
@@ -6870,7 +6876,7 @@
         <v>8</v>
       </c>
       <c r="B425" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C425" t="s">
         <v>505</v>
@@ -6881,7 +6887,7 @@
         <v>8</v>
       </c>
       <c r="B426" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C426" t="s">
         <v>505</v>
@@ -6892,7 +6898,7 @@
         <v>8</v>
       </c>
       <c r="B427" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C427" t="s">
         <v>505</v>
@@ -6903,7 +6909,7 @@
         <v>8</v>
       </c>
       <c r="B428" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C428" t="s">
         <v>505</v>
@@ -6914,7 +6920,7 @@
         <v>8</v>
       </c>
       <c r="B429" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C429" t="s">
         <v>505</v>
@@ -6925,7 +6931,7 @@
         <v>8</v>
       </c>
       <c r="B430" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C430" t="s">
         <v>505</v>
@@ -6936,7 +6942,7 @@
         <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C431" t="s">
         <v>505</v>
@@ -6947,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="B432" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C432" t="s">
         <v>505</v>
@@ -6958,7 +6964,7 @@
         <v>8</v>
       </c>
       <c r="B433" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C433" t="s">
         <v>505</v>
@@ -6969,7 +6975,7 @@
         <v>8</v>
       </c>
       <c r="B434" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C434" t="s">
         <v>505</v>
@@ -6980,7 +6986,7 @@
         <v>8</v>
       </c>
       <c r="B435" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C435" t="s">
         <v>505</v>
@@ -6991,7 +6997,7 @@
         <v>8</v>
       </c>
       <c r="B436" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C436" t="s">
         <v>505</v>
@@ -7002,7 +7008,7 @@
         <v>8</v>
       </c>
       <c r="B437" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C437" t="s">
         <v>505</v>
@@ -7013,7 +7019,7 @@
         <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C438" t="s">
         <v>505</v>
@@ -7024,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="B439" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C439" t="s">
         <v>505</v>
@@ -7035,7 +7041,7 @@
         <v>8</v>
       </c>
       <c r="B440" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C440" t="s">
         <v>505</v>
@@ -7046,7 +7052,7 @@
         <v>8</v>
       </c>
       <c r="B441" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C441" t="s">
         <v>505</v>
@@ -7057,7 +7063,7 @@
         <v>8</v>
       </c>
       <c r="B442" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C442" t="s">
         <v>505</v>
@@ -7068,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="B443" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C443" t="s">
         <v>505</v>
@@ -7079,7 +7085,7 @@
         <v>8</v>
       </c>
       <c r="B444" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C444" t="s">
         <v>505</v>
@@ -7090,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="B445" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C445" t="s">
         <v>505</v>
@@ -7101,7 +7107,7 @@
         <v>8</v>
       </c>
       <c r="B446" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C446" t="s">
         <v>505</v>
@@ -7112,7 +7118,7 @@
         <v>8</v>
       </c>
       <c r="B447" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C447" t="s">
         <v>505</v>
@@ -7123,7 +7129,7 @@
         <v>8</v>
       </c>
       <c r="B448" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C448" t="s">
         <v>505</v>
@@ -7134,7 +7140,7 @@
         <v>8</v>
       </c>
       <c r="B449" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C449" t="s">
         <v>505</v>
@@ -7145,7 +7151,7 @@
         <v>8</v>
       </c>
       <c r="B450" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C450" t="s">
         <v>505</v>
@@ -7156,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="B451" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C451" t="s">
         <v>505</v>
@@ -7167,7 +7173,7 @@
         <v>8</v>
       </c>
       <c r="B452" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C452" t="s">
         <v>505</v>
@@ -7178,7 +7184,7 @@
         <v>8</v>
       </c>
       <c r="B453" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C453" t="s">
         <v>505</v>
@@ -7189,7 +7195,7 @@
         <v>8</v>
       </c>
       <c r="B454" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C454" t="s">
         <v>505</v>
@@ -7200,7 +7206,7 @@
         <v>8</v>
       </c>
       <c r="B455" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C455" t="s">
         <v>505</v>
@@ -7211,7 +7217,7 @@
         <v>8</v>
       </c>
       <c r="B456" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C456" t="s">
         <v>505</v>
@@ -7222,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="B457" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C457" t="s">
         <v>505</v>
@@ -7233,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="B458" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C458" t="s">
         <v>505</v>
@@ -7244,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="B459" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C459" t="s">
         <v>505</v>
@@ -7255,7 +7261,7 @@
         <v>8</v>
       </c>
       <c r="B460" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C460" t="s">
         <v>505</v>
@@ -7266,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C461" t="s">
         <v>505</v>
@@ -7277,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="B462" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C462" t="s">
         <v>505</v>
@@ -7288,7 +7294,7 @@
         <v>8</v>
       </c>
       <c r="B463" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C463" t="s">
         <v>505</v>
@@ -7299,7 +7305,7 @@
         <v>8</v>
       </c>
       <c r="B464" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C464" t="s">
         <v>505</v>
@@ -7310,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="B465" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C465" t="s">
         <v>505</v>
@@ -7321,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="B466" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C466" t="s">
         <v>505</v>
@@ -7332,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="B467" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C467" t="s">
         <v>505</v>
@@ -7343,7 +7349,7 @@
         <v>8</v>
       </c>
       <c r="B468" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C468" t="s">
         <v>505</v>
@@ -7354,7 +7360,7 @@
         <v>8</v>
       </c>
       <c r="B469" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C469" t="s">
         <v>505</v>
@@ -7365,7 +7371,7 @@
         <v>8</v>
       </c>
       <c r="B470" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C470" t="s">
         <v>505</v>
@@ -7376,7 +7382,7 @@
         <v>8</v>
       </c>
       <c r="B471" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C471" t="s">
         <v>505</v>
@@ -7387,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="B472" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C472" t="s">
         <v>505</v>
@@ -7398,7 +7404,7 @@
         <v>8</v>
       </c>
       <c r="B473" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C473" t="s">
         <v>505</v>
@@ -7409,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="B474" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C474" t="s">
         <v>505</v>
@@ -7420,7 +7426,7 @@
         <v>8</v>
       </c>
       <c r="B475" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C475" t="s">
         <v>505</v>
@@ -7431,7 +7437,7 @@
         <v>8</v>
       </c>
       <c r="B476" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C476" t="s">
         <v>505</v>
@@ -7442,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="B477" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C477" t="s">
         <v>505</v>
@@ -7453,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="B478" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C478" t="s">
         <v>505</v>
@@ -7464,7 +7470,7 @@
         <v>8</v>
       </c>
       <c r="B479" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C479" t="s">
         <v>505</v>
@@ -7475,7 +7481,7 @@
         <v>8</v>
       </c>
       <c r="B480" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C480" t="s">
         <v>505</v>
@@ -7486,7 +7492,7 @@
         <v>8</v>
       </c>
       <c r="B481" t="s">
-        <v>155</v>
+        <v>487</v>
       </c>
       <c r="C481" t="s">
         <v>505</v>
@@ -7497,7 +7503,7 @@
         <v>8</v>
       </c>
       <c r="B482" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C482" t="s">
         <v>505</v>
@@ -7508,7 +7514,7 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>490</v>
+        <v>155</v>
       </c>
       <c r="C483" t="s">
         <v>505</v>
@@ -7519,7 +7525,7 @@
         <v>8</v>
       </c>
       <c r="B484" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C484" t="s">
         <v>505</v>
@@ -7530,7 +7536,7 @@
         <v>8</v>
       </c>
       <c r="B485" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C485" t="s">
         <v>505</v>
@@ -7541,7 +7547,7 @@
         <v>8</v>
       </c>
       <c r="B486" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C486" t="s">
         <v>505</v>
@@ -7552,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="B487" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C487" t="s">
         <v>505</v>
@@ -7563,15 +7569,37 @@
         <v>8</v>
       </c>
       <c r="B488" t="s">
+        <v>493</v>
+      </c>
+      <c r="C488" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A489" t="s">
+        <v>8</v>
+      </c>
+      <c r="B489" t="s">
+        <v>494</v>
+      </c>
+      <c r="C489" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A490" t="s">
+        <v>8</v>
+      </c>
+      <c r="B490" t="s">
         <v>495</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C490" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:B488" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
+  <autoFilter ref="A1:B490" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:B171">
     <sortCondition ref="B146:B171"/>
   </sortState>
